--- a/src/main/webapp/demoFileDownload/classImport_example.xlsx
+++ b/src/main/webapp/demoFileDownload/classImport_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\自己项目\学生在线考试系统\EXCEL表格格式\导入表格模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963C58FD-B3D8-4C0F-95F0-2191CFF21EB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A99628-07F2-4156-B4BD-C2D9F9D7BE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>备注（可为空，不导入）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,34 +55,6 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>任课老师工号（不可为空）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12580</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（样例误删！）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -91,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,21 +90,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -178,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -192,10 +149,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -478,39 +432,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.08203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.58203125" style="2"/>
+    <col min="2" max="2" width="25.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
     </row>

--- a/src/main/webapp/demoFileDownload/classImport_example.xlsx
+++ b/src/main/webapp/demoFileDownload/classImport_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\自己项目\学生在线考试系统\EXCEL表格格式\导入表格模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Fork contestsys\contestsys\src\main\webapp\demoFileDownload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A99628-07F2-4156-B4BD-C2D9F9D7BE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B21CC5-2A06-4B14-BD37-AC798C8D3CB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>此行为样例，误删。请按照第一行的格式填写数据！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级名称（不可为空）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,6 +50,9 @@
       <t>（样例误删！）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此行为样例，误删。请按照第一行的格式填写数据！</t>
   </si>
 </sst>
 </file>
@@ -96,10 +95,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -435,7 +436,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -447,18 +448,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="31" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
